--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>TCs</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>TC19</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>Utah</t>
   </si>
   <si>
     <t>Chinsu</t>
@@ -294,10 +288,28 @@
     <t>DG10</t>
   </si>
   <si>
-    <t>abcdefh</t>
+    <t>DG03</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>DG07</t>
+  </si>
+  <si>
+    <t>Jon Snow</t>
+  </si>
+  <si>
+    <t>Winterfell</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>DG05</t>
   </si>
 </sst>
 </file>
@@ -642,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,9 +668,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +726,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1103,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1080,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1103,46 +1136,46 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1160,586 +1193,586 @@
       <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5">
-        <v>1235671520</v>
-      </c>
-      <c r="H6" s="25" t="b">
+      <c r="G6" s="32">
+        <v>1235671529</v>
+      </c>
+      <c r="H6" s="24" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H13" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1235671529</v>
+      </c>
+      <c r="H14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1235671521</v>
+      </c>
+      <c r="H15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <v>1235671525</v>
+      </c>
+      <c r="H16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1235671524</v>
+      </c>
+      <c r="H17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9">
+        <v>12356712</v>
+      </c>
+      <c r="H18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9">
+        <v>12356712347</v>
+      </c>
+      <c r="H19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7654321987</v>
+      </c>
+      <c r="H20" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="9">
+        <v>7896541235</v>
+      </c>
+      <c r="H23" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1235671247</v>
+      </c>
+      <c r="H25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H7" s="9" t="b">
+      <c r="F26" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1235671247</v>
+      </c>
+      <c r="H26" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1235671521</v>
-      </c>
-      <c r="H15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1235671520</v>
-      </c>
-      <c r="H17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="10">
-        <v>12356712</v>
-      </c>
-      <c r="H18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="10">
-        <v>12356712347</v>
-      </c>
-      <c r="H19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="10">
-        <v>7654321987</v>
-      </c>
-      <c r="H20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="10">
-        <v>7896541235</v>
-      </c>
-      <c r="H23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1235671247</v>
-      </c>
-      <c r="H25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1235671247</v>
-      </c>
-      <c r="H26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1777,133 +1810,133 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21"/>
-    <col min="2" max="2" width="15.44140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="2" max="2" width="15.44140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="C2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E3" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B4" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="B10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Kiem-Thu-Phan-Mem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B27E5B-CD6E-4542-AA6E-BBA3F9648151}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12552" yWindow="60" windowWidth="10308" windowHeight="12768"/>
+    <workbookView xWindow="24" yWindow="12" windowWidth="10632" windowHeight="12768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t>TCs</t>
   </si>
@@ -303,19 +309,19 @@
     <t>Winterfell</t>
   </si>
   <si>
+    <t>DG05</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>DG05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -650,11 +656,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +769,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,7 +818,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="PivotTable Style 1" table="0" count="0"/>
+    <tableStyle name="PivotTable Style 1" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1103,18 +1125,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1136,29 +1158,29 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1196,8 @@
       <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1203,7 +1225,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,7 +1254,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1261,7 +1283,7 @@
         <v>56</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,7 +1312,7 @@
         <v>56</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1319,10 +1341,10 @@
         <v>58</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1368,7 @@
         <v>56</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1375,7 +1397,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,7 +1426,7 @@
         <v>58</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1433,7 +1455,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1444,25 +1466,23 @@
         <v>19</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="9">
         <v>1235671521</v>
       </c>
       <c r="H15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>58</v>
+      <c r="I15" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,20 +1493,22 @@
         <v>19</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="9">
         <v>1235671525</v>
       </c>
       <c r="H16" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>56</v>
+      <c r="I16" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>91</v>
@@ -1518,7 +1540,7 @@
         <v>58</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1538,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="9">
-        <v>12356712</v>
+        <v>123567</v>
       </c>
       <c r="H18" s="8" t="b">
         <v>1</v>
@@ -1547,7 +1569,7 @@
         <v>56</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1576,7 +1598,7 @@
         <v>56</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1605,7 +1627,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>21</v>
@@ -1634,7 +1656,7 @@
         <v>56</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1645,7 +1667,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>52</v>
@@ -1661,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1717,7 +1739,7 @@
         <v>56</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,15 +1759,17 @@
         <v>22</v>
       </c>
       <c r="G25" s="9">
-        <v>1235671247</v>
+        <v>12356712478</v>
       </c>
       <c r="H25" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
@@ -1769,10 +1793,12 @@
       <c r="H26" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1801,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Kiem-Thu-Phan-Mem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D5071-D25D-4686-8C4E-A851335D7A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12552" yWindow="60" windowWidth="10308" windowHeight="12768"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
   <si>
     <t>TCs</t>
   </si>
@@ -279,9 +285,6 @@
 động Sửa</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Tại màn hình </t>
-  </si>
-  <si>
     <t>New…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....YorkNew…....York</t>
   </si>
   <si>
@@ -303,20 +306,93 @@
     <t>Winterfell</t>
   </si>
   <si>
+    <t>DG05</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>DG05</t>
+    <t>Mã độc giả không tồn tại trong CSDL</t>
+  </si>
+  <si>
+    <t>Tên độc giả 
+31 ký tự</t>
+  </si>
+  <si>
+    <t>Tên độc giả 
+có ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Tên độc giả 
+bỏ trống</t>
+  </si>
+  <si>
+    <t>1. Tại màn hình Sửa độc giả, 
+không thực hiện chọn độc giả từ bảng dữ liệu.
+2. Các ô TextBox khác nhập giá trị hợp lệ
+3. Click button "Sửa"</t>
+  </si>
+  <si>
+    <t>1. Tại màn hình Sửa độc giả, 
+chọn độc giả cần sửa từ bảng dữ liệu.
+2. Các ô TextBox khác nhập giá trị hợp lệ
+3. Click button "Sửa"</t>
+  </si>
+  <si>
+    <t>Địa chỉ 101 ký tự</t>
+  </si>
+  <si>
+    <t>Địa chỉ có ký tự
+đặc biệt</t>
+  </si>
+  <si>
+    <t>Địa chỉ bỏ trống</t>
+  </si>
+  <si>
+    <t>Edit_11</t>
+  </si>
+  <si>
+    <t>Edit_12</t>
+  </si>
+  <si>
+    <t>Số điện thoại
+11 ký tự</t>
+  </si>
+  <si>
+    <t>Số điện thoại
+9 ký tự</t>
+  </si>
+  <si>
+    <t>Số điện thoại
+bỏ trống</t>
+  </si>
+  <si>
+    <t>Edit_13</t>
+  </si>
+  <si>
+    <t>Không check ô 
+giới tính</t>
+  </si>
+  <si>
+    <t>1. Tại màn hình Sửa độc giả, chọn độc giả cần sửa từ bảng dữ liệu.
+2. Các ô TextBox nhập giá trị hợp lệ
+3. Click button "Sửa"</t>
+  </si>
+  <si>
+    <t>1. MessageBox  "Edit Successfully"</t>
+  </si>
+  <si>
+    <t>1. MessageBox "Edit Unsuccessfully"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +415,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -650,11 +734,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,12 +870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +898,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,7 +994,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="PivotTable Style 1" table="0" count="0"/>
+    <tableStyle name="PivotTable Style 1" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1103,18 +1301,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1130,35 +1328,35 @@
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="15" width="10.109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="14" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1372,8 @@
       <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1193,10 +1391,10 @@
       <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <v>1235671529</v>
       </c>
-      <c r="H6" s="24" t="b">
+      <c r="H6" s="22" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1301,7 +1499,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>33</v>
@@ -1312,7 +1510,7 @@
       <c r="G10" s="9">
         <v>1235671529</v>
       </c>
-      <c r="H10" s="29" t="b">
+      <c r="H10" s="27" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1322,7 +1520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="9">
         <v>1235671529</v>
@@ -1397,7 +1595,7 @@
       <c r="G13" s="9">
         <v>1235671529</v>
       </c>
-      <c r="H13" s="25" t="b">
+      <c r="H13" s="23" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -1444,25 +1642,23 @@
         <v>19</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="9">
         <v>1235671521</v>
       </c>
       <c r="H15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>58</v>
+      <c r="I15" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,23 +1669,25 @@
         <v>19</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="9">
         <v>1235671525</v>
       </c>
       <c r="H16" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>56</v>
+      <c r="I16" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1511,7 +1709,7 @@
       <c r="G17" s="9">
         <v>1235671524</v>
       </c>
-      <c r="H17" s="26" t="b">
+      <c r="H17" s="24" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1538,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="9">
-        <v>12356712</v>
+        <v>123567</v>
       </c>
       <c r="H18" s="8" t="b">
         <v>1</v>
@@ -1547,7 +1745,7 @@
         <v>56</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,7 +1796,7 @@
       <c r="G20" s="9">
         <v>7654321987</v>
       </c>
-      <c r="H20" s="27" t="b">
+      <c r="H20" s="25" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1616,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>21</v>
@@ -1625,7 +1823,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="8" t="b">
         <v>1</v>
@@ -1634,7 +1832,7 @@
         <v>56</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1645,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>52</v>
@@ -1661,7 +1859,7 @@
         <v>56</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,7 +1870,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>41</v>
@@ -1683,14 +1881,14 @@
       <c r="G23" s="9">
         <v>7896541235</v>
       </c>
-      <c r="H23" s="28" t="b">
+      <c r="H23" s="26" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1717,7 +1915,7 @@
         <v>56</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,15 +1935,17 @@
         <v>22</v>
       </c>
       <c r="G25" s="9">
-        <v>1235671247</v>
+        <v>12356712478</v>
       </c>
       <c r="H25" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
@@ -1757,11 +1957,11 @@
       <c r="D26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="G26" s="17">
         <v>1235671247</v>
@@ -1769,10 +1969,12 @@
       <c r="H26" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="18" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1801,11 +2003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,133 +2016,293 @@
     <col min="2" max="2" width="15.44140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="20" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="20" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="E3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="B5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="B7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>19</v>
+      <c r="B11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Kiem-Thu-Phan-Mem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D5071-D25D-4686-8C4E-A851335D7A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -309,12 +303,6 @@
     <t>DG05</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Mã độc giả không tồn tại trong CSDL</t>
   </si>
   <si>
@@ -387,11 +375,17 @@
   <si>
     <t>1. MessageBox "Edit Unsuccessfully"</t>
   </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,9 +824,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,9 +845,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,21 +864,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,7 +967,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="PivotTable Style 1" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="PivotTable Style 1" table="0" count="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1301,18 +1274,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1323,8 +1296,8 @@
     <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="1"/>
@@ -1334,46 +1307,46 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1391,17 +1364,17 @@
       <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="23">
         <v>1235671529</v>
       </c>
-      <c r="H6" s="22" t="b">
+      <c r="H6" s="20" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1411,26 +1384,26 @@
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H7" s="8" t="b">
+      <c r="H7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>91</v>
+      <c r="J7" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1440,26 +1413,26 @@
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H8" s="8" t="b">
+      <c r="H8" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>91</v>
+      <c r="J8" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1469,55 +1442,55 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H9" s="8" t="b">
+      <c r="H9" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>91</v>
+      <c r="J9" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H10" s="27" t="b">
+      <c r="H10" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>90</v>
+      <c r="J10" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1527,24 +1500,24 @@
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H11" s="8" t="b">
+      <c r="H11" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>91</v>
+      <c r="J11" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1554,26 +1527,26 @@
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H12" s="8" t="b">
+      <c r="H12" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>91</v>
+      <c r="J12" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1583,55 +1556,55 @@
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H13" s="23" t="b">
+      <c r="H13" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>90</v>
+      <c r="J13" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>1235671529</v>
       </c>
-      <c r="H14" s="8" t="b">
+      <c r="H14" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>91</v>
+      <c r="J14" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,24 +1614,24 @@
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9">
+      <c r="F15" s="21"/>
+      <c r="G15" s="8">
         <v>1235671521</v>
       </c>
-      <c r="H15" s="8" t="b">
+      <c r="H15" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>91</v>
+      <c r="J15" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1668,26 +1641,26 @@
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1235671525</v>
       </c>
-      <c r="H16" s="8" t="b">
+      <c r="H16" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>90</v>
+      <c r="J16" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1697,55 +1670,55 @@
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>1235671524</v>
       </c>
-      <c r="H17" s="24" t="b">
+      <c r="H17" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>90</v>
+      <c r="J17" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>123567</v>
       </c>
-      <c r="H18" s="8" t="b">
+      <c r="H18" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>91</v>
+      <c r="J18" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1755,26 +1728,26 @@
       <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>12356712347</v>
       </c>
-      <c r="H19" s="8" t="b">
+      <c r="H19" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>91</v>
+      <c r="J19" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1784,26 +1757,26 @@
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>7654321987</v>
       </c>
-      <c r="H20" s="25" t="b">
+      <c r="H20" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>90</v>
+      <c r="J20" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1813,53 +1786,53 @@
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="8" t="b">
+      <c r="H21" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>91</v>
+      <c r="J21" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8" t="b">
+      <c r="G22" s="8"/>
+      <c r="H22" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>91</v>
+      <c r="J22" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1869,26 +1842,26 @@
       <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>7896541235</v>
       </c>
-      <c r="H23" s="26" t="b">
+      <c r="H23" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>90</v>
+      <c r="J23" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1898,82 +1871,82 @@
       <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8" t="b">
+      <c r="G24" s="8"/>
+      <c r="H24" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>91</v>
+      <c r="J24" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>12356712478</v>
       </c>
-      <c r="H25" s="8" t="b">
+      <c r="H25" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>91</v>
+      <c r="J25" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>1235671247</v>
       </c>
-      <c r="H26" s="16" t="b">
+      <c r="H26" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>90</v>
+      <c r="J26" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -2012,293 +1985,293 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
-    <col min="2" max="2" width="15.44140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="15.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D6" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="D8" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E8" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="D9" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="E9" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="F9" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="E10" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="E11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="E12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="B13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="E13" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>110</v>
+      <c r="E14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="12336" yWindow="72" windowWidth="10536" windowHeight="12768"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
   <si>
     <t>TCs</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Winterfell</t>
   </si>
   <si>
-    <t>DG05</t>
-  </si>
-  <si>
     <t>Mã độc giả không tồn tại trong CSDL</t>
   </si>
   <si>
@@ -379,7 +376,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J26"/>
+  <dimension ref="B3:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J6" sqref="J6:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1296,7 @@
     <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="1"/>
     <col min="12" max="14" width="10.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
@@ -1374,7 +1371,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1400,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,7 +1429,7 @@
         <v>56</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1461,7 +1458,7 @@
         <v>56</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1490,7 +1487,7 @@
         <v>58</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1517,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1546,7 +1543,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1575,7 +1572,7 @@
         <v>58</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1601,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,7 +1628,7 @@
         <v>56</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,7 +1657,7 @@
         <v>58</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1689,7 +1686,7 @@
         <v>58</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,7 +1715,7 @@
         <v>56</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1747,7 +1744,7 @@
         <v>56</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1776,7 +1773,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1805,7 +1802,7 @@
         <v>56</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>52</v>
@@ -1832,7 +1829,7 @@
         <v>56</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1861,7 +1858,7 @@
         <v>58</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,7 +1885,7 @@
         <v>56</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1917,7 +1914,7 @@
         <v>56</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1946,6 +1943,11 @@
         <v>58</v>
       </c>
       <c r="J26" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2048,10 +2050,10 @@
         <v>81</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -2062,16 +2064,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2082,16 +2084,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2102,16 +2104,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2122,16 +2124,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2142,16 +2144,16 @@
         <v>19</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2162,16 +2164,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2182,16 +2184,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2202,76 +2204,76 @@
         <v>19</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>TCs</t>
   </si>
@@ -1271,7 +1271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1279,9 +1279,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J27"/>
+  <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J6" sqref="J6:J26"/>
     </sheetView>
   </sheetViews>
@@ -1944,11 +1944,6 @@
       </c>
       <c r="J26" s="16" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J27" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Testcase_SuaDocGia.xlsx
+++ b/Testcase_SuaDocGia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12336" yWindow="72" windowWidth="10536" windowHeight="12768"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="11100" windowHeight="12768"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
   <si>
     <t>TCs</t>
   </si>
@@ -373,6 +373,15 @@
     <t>1. MessageBox "Edit Unsuccessfully"</t>
   </si>
   <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -383,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +423,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -674,68 +690,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,13 +769,59 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,9 +844,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,22 +853,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -857,21 +865,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,26 +898,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,7 +1312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1279,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J26"/>
+  <dimension ref="B3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J26"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1293,7 +1334,7 @@
     <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="42" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
@@ -1304,46 +1345,46 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="49"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1361,17 +1402,17 @@
       <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="44">
         <v>1235671529</v>
       </c>
-      <c r="H6" s="20" t="b">
+      <c r="H6" s="15" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1381,26 +1422,26 @@
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H7" s="21" t="b">
+      <c r="H7" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>108</v>
+      <c r="J7" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1410,26 +1451,26 @@
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H8" s="21" t="b">
+      <c r="H8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>108</v>
+      <c r="J8" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1439,55 +1480,55 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H9" s="21" t="b">
+      <c r="H9" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>109</v>
+      <c r="J9" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H10" s="21" t="b">
+      <c r="H10" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>108</v>
+      <c r="J10" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1497,24 +1538,24 @@
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H11" s="21" t="b">
+      <c r="H11" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>108</v>
+      <c r="J11" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1524,26 +1565,26 @@
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H12" s="21" t="b">
+      <c r="H12" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>108</v>
+      <c r="J12" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1553,55 +1594,55 @@
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H13" s="21" t="b">
+      <c r="H13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>108</v>
+      <c r="J13" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="45">
         <v>1235671529</v>
       </c>
-      <c r="H14" s="21" t="b">
+      <c r="H14" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>109</v>
+      <c r="J14" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1611,24 +1652,24 @@
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="8">
+      <c r="F15" s="16"/>
+      <c r="G15" s="45">
         <v>1235671521</v>
       </c>
-      <c r="H15" s="21" t="b">
+      <c r="H15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>108</v>
+      <c r="J15" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,26 +1679,26 @@
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="45">
         <v>1235671525</v>
       </c>
-      <c r="H16" s="21" t="b">
+      <c r="H16" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>108</v>
+      <c r="J16" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,55 +1708,55 @@
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="45">
         <v>1235671524</v>
       </c>
-      <c r="H17" s="21" t="b">
+      <c r="H17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>108</v>
+      <c r="J17" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="45">
         <v>123567</v>
       </c>
-      <c r="H18" s="21" t="b">
+      <c r="H18" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>108</v>
+      <c r="J18" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,26 +1766,26 @@
       <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="8">
-        <v>12356712347</v>
-      </c>
-      <c r="H19" s="21" t="b">
+      <c r="G19" s="45">
+        <v>123567712347</v>
+      </c>
+      <c r="H19" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>108</v>
+      <c r="J19" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,26 +1795,26 @@
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="45">
         <v>7654321987</v>
       </c>
-      <c r="H20" s="21" t="b">
+      <c r="H20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>108</v>
+      <c r="J20" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,53 +1824,53 @@
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="21" t="b">
+      <c r="H21" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>108</v>
+      <c r="J21" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="21" t="b">
+      <c r="G22" s="45"/>
+      <c r="H22" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>108</v>
+      <c r="J22" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1839,26 +1880,26 @@
       <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="45">
         <v>7896541235</v>
       </c>
-      <c r="H23" s="21" t="b">
+      <c r="H23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>108</v>
+      <c r="J23" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1868,82 +1909,111 @@
       <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="21" t="b">
+      <c r="G24" s="45"/>
+      <c r="H24" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="45">
+        <v>123576712478</v>
+      </c>
+      <c r="H25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="46">
+        <v>1235671247</v>
+      </c>
+      <c r="H26" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="8">
-        <v>12356712478</v>
-      </c>
-      <c r="H25" s="21" t="b">
+      <c r="C27" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="40">
+        <v>12356712848</v>
+      </c>
+      <c r="H27" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1235671247</v>
-      </c>
-      <c r="H26" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="I27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>108</v>
+      <c r="J27" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1982,292 +2052,292 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="18"/>
-    <col min="2" max="2" width="15.44140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="15.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="31" t="s">
         <v>107</v>
       </c>
     </row>
